--- a/data_bh/precos_carrefour_bh-2025-09.xlsx
+++ b/data_bh/precos_carrefour_bh-2025-09.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,358 +442,468 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Preço_20250918</t>
+          <t>Preço_20250918_x</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Preço_20250918_y</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arroz Branco Longo-fino Tipo 1 Tio João 2Kg</t>
+          <t>Achocolatado em Pó Nescau 550g</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1529</v>
+        <v>1879</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1879</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Feijão Carioca Tipo 1 Kicaldo 1Kg</t>
+          <t>Acém em Pedaços Carrefour Aproximadamente 500 g</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>599</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Macarrão de Sêmola com Ovos Espaguete 8 Adria 500g</t>
+          <t>Alcatra Bovina Carrefour Aproximadamente 400 g</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>409</v>
+        <v>459</v>
+      </c>
+      <c r="C4" t="n">
+        <v>459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Nissin Sabor Galinha Caipira 85g</t>
+          <t>Alface Lisa Carrefour</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>309</v>
+        <v>499</v>
+      </c>
+      <c r="C5" t="n">
+        <v>499</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Batata Monalisa Carrefour Aprox. 600g</t>
+          <t>Arroz Branco Longo-fino Tipo 1 Tio João 2Kg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199</v>
+        <v>1529</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1529</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tomate Carmem Carrefour Aprox. 500g</t>
+          <t>Açúcar Refinado União 1kg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>999</v>
+        <v>489</v>
+      </c>
+      <c r="C7" t="n">
+        <v>489</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cebola Carrefour Aprox. 500g</t>
+          <t>Banana Nanica Fresca Orgânica  600g</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>499</v>
+        <v>739</v>
+      </c>
+      <c r="C8" t="n">
+        <v>739</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cenoura Único 1Kg</t>
+          <t>Banana Prata Fischer Turma da Mônica 750g</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>319</v>
+        <v>529</v>
+      </c>
+      <c r="C9" t="n">
+        <v>529</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Açúcar Refinado União 1kg</t>
+          <t>Batata Monalisa Carrefour Aprox. 600g</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>489</v>
+        <v>199</v>
+      </c>
+      <c r="C10" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sorvete Napolitano Nestlé 1,5 Litros</t>
+          <t>Bisteca Suína Congelada Sadia 1 Kg</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2999</v>
+        <v>2339</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2339</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Achocolatado em Pó Nescau 550g</t>
+          <t>Camarão Descascado Cozido 35/45 Maris 400 g</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1879</v>
+        <v>5999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alface Lisa Carrefour</t>
+          <t>Cebola Carrefour Aprox. 500g</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>499</v>
       </c>
+      <c r="C13" t="n">
+        <v>499</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Banana Nanica Fresca Orgânica  600g</t>
+          <t>Cenoura Único 1Kg</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>739</v>
+        <v>319</v>
+      </c>
+      <c r="C14" t="n">
+        <v>319</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Banana Prata Fischer Turma da Mônica 750g</t>
+          <t>Contra Filé Swift Mais Aprox. 1,5Kg</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>529</v>
+        <v>649</v>
+      </c>
+      <c r="C15" t="n">
+        <v>649</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Limão Siciliano Carrefour KG</t>
+          <t>Coxão Mole Fracionado à Vácuo Aprox. 1,3 Kg</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>989</v>
+        <v>4899</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4899</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Maçã Gala Carrefour Aprox 600 g</t>
+          <t>Feijão Carioca Tipo 1 Kicaldo 1Kg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1459</v>
+        <v>599</v>
+      </c>
+      <c r="C17" t="n">
+        <v>599</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mamão Formosa Garantia de Origem Aprox. 1,6 Kg</t>
+          <t>Filé de Merluza Congelado Planalto 500 g</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>899</v>
+        <v>2799</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2799</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Manga Palmer Carrefour Aprox. 600g</t>
+          <t>Filé de Pescada sem Espinha Swift 500 g</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>999</v>
+        <v>2459</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2459</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Melancia Premium Carrefour Aprox.  8Kg</t>
+          <t>Filé de Tilápia Fresco Carrefour 500 g</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>299</v>
+        <v>6229</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pera Willians Aprox. 500g</t>
+          <t>Lagarto Swift Mais Aprox. 1,5Kg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1499</v>
+        <v>4359</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4359</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Uva Escura sem Semente Carrefour 500g</t>
+          <t>Laranja Pera Carrefour Mercado 5 Kg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>699</v>
+        <v>2609</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2609</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Laranja Pera Carrefour Mercado 5 Kg</t>
+          <t>Limão Siciliano Carrefour KG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2609</v>
+        <v>989</v>
+      </c>
+      <c r="C23" t="n">
+        <v>989</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bisteca Suína Congelada Sadia 1 Kg</t>
+          <t>Linguiça Toscana Swift 700 g</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2339</v>
+        <v>149</v>
+      </c>
+      <c r="C24" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Contra Filé Swift Mais Aprox. 1,5Kg</t>
+          <t>Macarrão Instantâneo Nissin Sabor Galinha Caipira 85g</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>649</v>
+        <v>309</v>
+      </c>
+      <c r="C25" t="n">
+        <v>309</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Coxão Mole Fracionado à Vácuo Aprox. 1,3 Kg</t>
+          <t>Macarrão de Sêmola com Ovos Espaguete 8 Adria 500g</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4899</v>
+        <v>409</v>
+      </c>
+      <c r="C26" t="n">
+        <v>409</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Alcatra Bovina Carrefour Aproximadamente 400 g</t>
+          <t>Mamão Formosa Garantia de Origem Aprox. 1,6 Kg</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>459</v>
+        <v>899</v>
+      </c>
+      <c r="C27" t="n">
+        <v>899</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lagarto Swift Mais Aprox. 1,5Kg</t>
+          <t>Manga Palmer Carrefour Aprox. 600g</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4359</v>
+        <v>999</v>
+      </c>
+      <c r="C28" t="n">
+        <v>999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Acém em Pedaços Carrefour Aproximadamente 500 g</t>
+          <t>Maçã Gala Carrefour Aprox 600 g</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8</v>
+        <v>1459</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1459</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Camarão Descascado Cozido 35/45 Maris 400 g</t>
+          <t>Melancia Premium Carrefour Aprox.  8Kg</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5999</v>
+        <v>299</v>
+      </c>
+      <c r="C30" t="n">
+        <v>299</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Posta Cação Congelado Buona Pesca 500 g</t>
+          <t>Pera Willians Aprox. 500g</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2289</v>
+        <v>1499</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1499</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Filé de Merluza Congelado Planalto 500 g</t>
+          <t>Posta Cação Congelado Buona Pesca 500 g</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2799</v>
+        <v>2289</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2289</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Filé de Pescada sem Espinha Swift 500 g</t>
+          <t>Salsicha Hot Dog Resfriada Aurora Aproximadamente 500 g</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2459</v>
+        <v>1649</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1649</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Filé de Tilápia Fresco Carrefour 500 g</t>
+          <t>Sorvete Napolitano Nestlé 1,5 Litros</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6229</v>
+        <v>2999</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Salsicha Hot Dog Resfriada Aurora Aproximadamente 500 g</t>
+          <t>Tomate Carmem Carrefour Aprox. 500g</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1649</v>
+        <v>999</v>
+      </c>
+      <c r="C35" t="n">
+        <v>999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Linguiça Toscana Swift 700 g</t>
+          <t>Uva Escura sem Semente Carrefour 500g</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>149</v>
+        <v>699</v>
+      </c>
+      <c r="C36" t="n">
+        <v>699</v>
       </c>
     </row>
   </sheetData>
